--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H2">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.129292</v>
+        <v>0.196431</v>
       </c>
       <c r="N2">
-        <v>0.387876</v>
+        <v>0.589293</v>
       </c>
       <c r="O2">
-        <v>0.06615700391713267</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="P2">
-        <v>0.06615700391713268</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="Q2">
-        <v>0.008872534207999999</v>
+        <v>0.004625098849000001</v>
       </c>
       <c r="R2">
-        <v>0.07985280787199998</v>
+        <v>0.041625889641</v>
       </c>
       <c r="S2">
-        <v>0.0005399707172386775</v>
+        <v>0.0002735955460409391</v>
       </c>
       <c r="T2">
-        <v>0.0005399707172386776</v>
+        <v>0.0002735955460409391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H3">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4307096666666666</v>
+        <v>0.4307096666666667</v>
       </c>
       <c r="N3">
         <v>1.292129</v>
       </c>
       <c r="O3">
-        <v>0.2203884316493949</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="P3">
-        <v>0.220388431649395</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="Q3">
-        <v>0.02955702016533332</v>
+        <v>0.01014134624144445</v>
       </c>
       <c r="R3">
-        <v>0.266013181488</v>
+        <v>0.09127211617300002</v>
       </c>
       <c r="S3">
-        <v>0.001798801222284686</v>
+        <v>0.0005999065648333387</v>
       </c>
       <c r="T3">
-        <v>0.001798801222284687</v>
+        <v>0.0005999065648333386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H4">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.182957</v>
       </c>
       <c r="O4">
-        <v>0.7134545644334723</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="P4">
-        <v>0.7134545644334724</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="Q4">
-        <v>0.095683747056</v>
+        <v>0.032830170401</v>
       </c>
       <c r="R4">
-        <v>0.8611537235039999</v>
+        <v>0.295471533609</v>
       </c>
       <c r="S4">
-        <v>0.005823186511845401</v>
+        <v>0.001942053281611641</v>
       </c>
       <c r="T4">
-        <v>0.005823186511845402</v>
+        <v>0.00194205328161164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>24.758105</v>
       </c>
       <c r="I5">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J5">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.129292</v>
+        <v>0.196431</v>
       </c>
       <c r="N5">
-        <v>0.387876</v>
+        <v>0.589293</v>
       </c>
       <c r="O5">
-        <v>0.06615700391713267</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="P5">
-        <v>0.06615700391713268</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="Q5">
-        <v>1.067008303886667</v>
+        <v>1.621086441085</v>
       </c>
       <c r="R5">
-        <v>9.60307473498</v>
+        <v>14.589777969765</v>
       </c>
       <c r="S5">
-        <v>0.06493671657301862</v>
+        <v>0.09589460560915532</v>
       </c>
       <c r="T5">
-        <v>0.06493671657301864</v>
+        <v>0.0958946056091553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.758105</v>
       </c>
       <c r="I6">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J6">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4307096666666666</v>
+        <v>0.4307096666666667</v>
       </c>
       <c r="N6">
         <v>1.292129</v>
       </c>
       <c r="O6">
-        <v>0.2203884316493949</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="P6">
-        <v>0.220388431649395</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="Q6">
-        <v>3.554518383949444</v>
+        <v>3.554518383949445</v>
       </c>
       <c r="R6">
         <v>31.990665455545</v>
       </c>
       <c r="S6">
-        <v>0.2163232957150687</v>
+        <v>0.2102658623997778</v>
       </c>
       <c r="T6">
-        <v>0.2163232957150687</v>
+        <v>0.2102658623997778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.758105</v>
       </c>
       <c r="I7">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J7">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.182957</v>
       </c>
       <c r="O7">
-        <v>0.7134545644334723</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="P7">
-        <v>0.7134545644334724</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="Q7">
         <v>11.506898735165</v>
@@ -880,10 +880,10 @@
         <v>103.562088616485</v>
       </c>
       <c r="S7">
-        <v>0.7002946641352501</v>
+        <v>0.6806851800293836</v>
       </c>
       <c r="T7">
-        <v>0.7002946641352501</v>
+        <v>0.6806851800293835</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.259381</v>
       </c>
       <c r="I8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.129292</v>
+        <v>0.196431</v>
       </c>
       <c r="N8">
-        <v>0.387876</v>
+        <v>0.589293</v>
       </c>
       <c r="O8">
-        <v>0.06615700391713267</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="P8">
-        <v>0.06615700391713268</v>
+        <v>0.09717285149889213</v>
       </c>
       <c r="Q8">
-        <v>0.01117862941733333</v>
+        <v>0.016983489737</v>
       </c>
       <c r="R8">
-        <v>0.100607664756</v>
+        <v>0.152851407633</v>
       </c>
       <c r="S8">
-        <v>0.0006803166268753663</v>
+        <v>0.001004650343695865</v>
       </c>
       <c r="T8">
-        <v>0.0006803166268753664</v>
+        <v>0.001004650343695865</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.259381</v>
       </c>
       <c r="I9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4307096666666666</v>
+        <v>0.4307096666666667</v>
       </c>
       <c r="N9">
         <v>1.292129</v>
       </c>
       <c r="O9">
-        <v>0.2203884316493949</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="P9">
-        <v>0.220388431649395</v>
+        <v>0.2130686423127578</v>
       </c>
       <c r="Q9">
         <v>0.03723930134988888</v>
       </c>
       <c r="R9">
-        <v>0.3351537121489999</v>
+        <v>0.335153712149</v>
       </c>
       <c r="S9">
-        <v>0.00226633471204158</v>
+        <v>0.002202873348146668</v>
       </c>
       <c r="T9">
-        <v>0.002266334712041581</v>
+        <v>0.002202873348146668</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.259381</v>
       </c>
       <c r="I10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>4.182957</v>
       </c>
       <c r="O10">
-        <v>0.7134545644334723</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="P10">
-        <v>0.7134545644334724</v>
+        <v>0.68975850618835</v>
       </c>
       <c r="Q10">
         <v>0.120553285513</v>
@@ -1066,10 +1066,10 @@
         <v>1.084979569617</v>
       </c>
       <c r="S10">
-        <v>0.007336713786376836</v>
+        <v>0.00713127287735477</v>
       </c>
       <c r="T10">
-        <v>0.007336713786376837</v>
+        <v>0.00713127287735477</v>
       </c>
     </row>
   </sheetData>
